--- a/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/decision_table.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/decision_table.xlsx
@@ -900,7 +900,7 @@
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="AT24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6236,7 +6236,7 @@
       </c>
       <c r="AT25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="AT26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6752,7 +6752,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7164,7 +7164,7 @@
       </c>
       <c r="AT29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
@@ -7396,7 +7396,7 @@
       </c>
       <c r="AT30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7628,7 +7628,7 @@
       </c>
       <c r="AT31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -7725,7 +7725,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -7755,7 +7755,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -7805,7 +7805,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8092,7 +8092,7 @@
       </c>
       <c r="AT33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8159,12 +8159,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -8174,7 +8174,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -8254,7 +8254,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
@@ -8299,12 +8299,12 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="AT35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8788,7 +8788,7 @@
       </c>
       <c r="AT36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="AT37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9252,7 +9252,7 @@
       </c>
       <c r="AT38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="AT39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9716,7 +9716,7 @@
       </c>
       <c r="AT40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9948,7 +9948,7 @@
       </c>
       <c r="AT41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -10125,7 +10125,7 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
@@ -10150,7 +10150,7 @@
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
@@ -10180,7 +10180,7 @@
       </c>
       <c r="AT42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -10232,7 +10232,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ43" t="inlineStr">
@@ -10412,14 +10412,14 @@
       </c>
       <c r="AT43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -10464,7 +10464,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -10549,7 +10549,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -10564,7 +10564,7 @@
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE44" t="inlineStr">
@@ -10589,7 +10589,7 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ44" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="AQ44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AR44" t="inlineStr">
@@ -10639,12 +10639,12 @@
       </c>
       <c r="AS44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10876,7 +10876,7 @@
       </c>
       <c r="AT45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -10933,7 +10933,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -11108,7 +11108,7 @@
       </c>
       <c r="AT46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11340,7 +11340,7 @@
       </c>
       <c r="AT47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11572,14 +11572,14 @@
       </c>
       <c r="AT48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -11614,7 +11614,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -11649,7 +11649,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -11699,7 +11699,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -11709,7 +11709,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -11734,7 +11734,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
@@ -11769,7 +11769,7 @@
       </c>
       <c r="AM49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AN49" t="inlineStr">
@@ -11789,7 +11789,7 @@
       </c>
       <c r="AQ49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AR49" t="inlineStr">
@@ -11804,7 +11804,7 @@
       </c>
       <c r="AT49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="AT50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -12133,7 +12133,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -12173,7 +12173,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="AT51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12500,7 +12500,7 @@
       </c>
       <c r="AT52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="AT53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -12964,7 +12964,7 @@
       </c>
       <c r="AT54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -13196,7 +13196,7 @@
       </c>
       <c r="AT55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -13428,7 +13428,7 @@
       </c>
       <c r="AT56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -13630,7 +13630,7 @@
       </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="AT57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -13717,7 +13717,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -13837,7 +13837,7 @@
       </c>
       <c r="AI58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ58" t="inlineStr">
@@ -13892,7 +13892,7 @@
       </c>
       <c r="AT58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -13949,7 +13949,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -14029,7 +14029,7 @@
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
@@ -14069,7 +14069,7 @@
       </c>
       <c r="AI59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ59" t="inlineStr">
@@ -14124,7 +14124,7 @@
       </c>
       <c r="AT59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14221,7 +14221,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
@@ -14251,7 +14251,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -14301,7 +14301,7 @@
       </c>
       <c r="AI60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ60" t="inlineStr">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="AT60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14413,7 +14413,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -14588,7 +14588,7 @@
       </c>
       <c r="AT61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="AT62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15052,7 +15052,7 @@
       </c>
       <c r="AT63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15284,7 +15284,7 @@
       </c>
       <c r="AT64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15516,7 +15516,7 @@
       </c>
       <c r="AT65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -15643,7 +15643,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -15653,7 +15653,7 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -15748,7 +15748,7 @@
       </c>
       <c r="AT66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15980,7 +15980,7 @@
       </c>
       <c r="AT67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16212,7 +16212,7 @@
       </c>
       <c r="AT68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16444,7 +16444,7 @@
       </c>
       <c r="AT69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -16676,7 +16676,7 @@
       </c>
       <c r="AT70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="AT71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17140,7 +17140,7 @@
       </c>
       <c r="AT72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17372,7 +17372,7 @@
       </c>
       <c r="AT73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17604,7 +17604,7 @@
       </c>
       <c r="AT74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17836,7 +17836,7 @@
       </c>
       <c r="AT75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -18068,7 +18068,7 @@
       </c>
       <c r="AT76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -18300,7 +18300,7 @@
       </c>
       <c r="AT77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -18427,7 +18427,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
@@ -18532,7 +18532,7 @@
       </c>
       <c r="AT78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -18764,7 +18764,7 @@
       </c>
       <c r="AT79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="AT80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -19228,7 +19228,7 @@
       </c>
       <c r="AT81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -19460,7 +19460,7 @@
       </c>
       <c r="AT82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -19517,7 +19517,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -19557,7 +19557,7 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
@@ -19587,7 +19587,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
@@ -19692,7 +19692,7 @@
       </c>
       <c r="AT83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19924,7 +19924,7 @@
       </c>
       <c r="AT84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -19976,7 +19976,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="AI85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ85" t="inlineStr">
@@ -20126,7 +20126,7 @@
       </c>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO85" t="inlineStr">
@@ -20156,7 +20156,7 @@
       </c>
       <c r="AT85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -20388,7 +20388,7 @@
       </c>
       <c r="AT86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -20620,7 +20620,7 @@
       </c>
       <c r="AT87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -20852,7 +20852,7 @@
       </c>
       <c r="AT88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="AT89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -21316,7 +21316,7 @@
       </c>
       <c r="AT90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -21548,7 +21548,7 @@
       </c>
       <c r="AT91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -21780,7 +21780,7 @@
       </c>
       <c r="AT92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -22012,7 +22012,7 @@
       </c>
       <c r="AT93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -22244,7 +22244,7 @@
       </c>
       <c r="AT94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -22476,7 +22476,7 @@
       </c>
       <c r="AT95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -22708,7 +22708,7 @@
       </c>
       <c r="AT96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -22940,7 +22940,7 @@
       </c>
       <c r="AT97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="AT98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -23309,7 +23309,7 @@
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB99" t="inlineStr">
@@ -23404,7 +23404,7 @@
       </c>
       <c r="AT99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23636,7 +23636,7 @@
       </c>
       <c r="AT100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -23868,7 +23868,7 @@
       </c>
       <c r="AT101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/decision_table.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/decision_table.xlsx
@@ -1139,7 +1139,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1199,17 +1199,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1364,14 +1364,14 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2788,12 +2788,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
@@ -2978,17 +2978,17 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -3060,12 +3060,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -3180,17 +3180,17 @@
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -3210,17 +3210,17 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3948,12 +3948,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -4108,12 +4108,12 @@
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
@@ -4133,29 +4133,29 @@
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4250,12 +4250,12 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -4380,14 +4380,14 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -4487,12 +4487,12 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -4572,17 +4572,17 @@
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
@@ -4607,12 +4607,12 @@
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4911,12 +4911,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -4951,12 +4951,12 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
@@ -5061,22 +5061,22 @@
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -5268,12 +5268,12 @@
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
@@ -5293,7 +5293,7 @@
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5779,7 +5779,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5809,7 +5809,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -5964,17 +5964,17 @@
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="AT24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -6797,7 +6797,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -6847,7 +6847,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
@@ -6862,7 +6862,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
@@ -6912,12 +6912,12 @@
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
@@ -6927,12 +6927,12 @@
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -7019,7 +7019,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
@@ -7159,12 +7159,12 @@
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -8426,7 +8426,7 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -8456,7 +8456,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -8516,7 +8516,7 @@
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="AT35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -8795,7 +8795,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -8825,7 +8825,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -8865,7 +8865,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -8915,12 +8915,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -8990,7 +8990,7 @@
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
@@ -9005,7 +9005,7 @@
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
@@ -9015,12 +9015,12 @@
       </c>
       <c r="AS37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -10711,12 +10711,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
@@ -10776,7 +10776,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
@@ -10846,7 +10846,7 @@
       </c>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR45" t="inlineStr">
@@ -10871,12 +10871,12 @@
       </c>
       <c r="AS45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -10893,7 +10893,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -10908,7 +10908,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -10918,7 +10918,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -10958,12 +10958,12 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -10978,7 +10978,7 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
@@ -10988,12 +10988,12 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
@@ -11008,7 +11008,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -11073,12 +11073,12 @@
       </c>
       <c r="AM46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
@@ -11108,7 +11108,7 @@
       </c>
       <c r="AT46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11140,7 +11140,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -11180,12 +11180,12 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -11240,7 +11240,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -11325,7 +11325,7 @@
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR47" t="inlineStr">
@@ -11335,12 +11335,12 @@
       </c>
       <c r="AS47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -11382,7 +11382,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -11402,17 +11402,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -11442,7 +11442,7 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -11467,12 +11467,12 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -11562,7 +11562,7 @@
       </c>
       <c r="AR48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS48" t="inlineStr">
@@ -11572,7 +11572,7 @@
       </c>
       <c r="AT48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11841,12 +11841,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
@@ -11966,7 +11966,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="AT50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -12275,7 +12275,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -12335,7 +12335,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -12345,7 +12345,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -12355,7 +12355,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="AL52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM52" t="inlineStr">
@@ -12485,7 +12485,7 @@
       </c>
       <c r="AQ52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR52" t="inlineStr">
@@ -12500,7 +12500,7 @@
       </c>
       <c r="AT52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -13435,7 +13435,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -13460,12 +13460,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -13495,17 +13495,17 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -13525,17 +13525,17 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -13560,7 +13560,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
@@ -13645,7 +13645,7 @@
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR57" t="inlineStr">
@@ -13655,12 +13655,12 @@
       </c>
       <c r="AS57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -13697,7 +13697,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -13732,7 +13732,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -13747,7 +13747,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -13767,12 +13767,12 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -13802,7 +13802,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
@@ -13852,7 +13852,7 @@
       </c>
       <c r="AL58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM58" t="inlineStr">
@@ -13862,7 +13862,7 @@
       </c>
       <c r="AN58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
@@ -13877,7 +13877,7 @@
       </c>
       <c r="AQ58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR58" t="inlineStr">
@@ -13887,12 +13887,12 @@
       </c>
       <c r="AS58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14201,7 +14201,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -14231,12 +14231,12 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
@@ -14351,19 +14351,19 @@
       </c>
       <c r="AS60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -14388,7 +14388,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -14428,7 +14428,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -14483,12 +14483,12 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -14553,12 +14553,12 @@
       </c>
       <c r="AM61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
@@ -14583,12 +14583,12 @@
       </c>
       <c r="AS61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14655,17 +14655,17 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -14675,7 +14675,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -14685,7 +14685,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
@@ -14695,7 +14695,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
@@ -14780,12 +14780,12 @@
       </c>
       <c r="AL62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AN62" t="inlineStr">
@@ -14805,22 +14805,22 @@
       </c>
       <c r="AQ62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -15129,7 +15129,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -15149,7 +15149,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -15179,7 +15179,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -15194,7 +15194,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
@@ -15279,12 +15279,12 @@
       </c>
       <c r="AS64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -16244,7 +16244,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -16284,12 +16284,12 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -16299,7 +16299,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -16324,7 +16324,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
@@ -16354,7 +16354,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC69" t="inlineStr">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="AM69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AN69" t="inlineStr">
@@ -16434,7 +16434,7 @@
       </c>
       <c r="AR69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS69" t="inlineStr">
@@ -16444,7 +16444,7 @@
       </c>
       <c r="AT69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -16571,7 +16571,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -16636,17 +16636,17 @@
       </c>
       <c r="AL70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
@@ -16661,7 +16661,7 @@
       </c>
       <c r="AQ70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR70" t="inlineStr">
@@ -16671,12 +16671,12 @@
       </c>
       <c r="AS70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -16713,7 +16713,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -16753,7 +16753,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -16778,12 +16778,12 @@
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -16803,12 +16803,12 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -16878,7 +16878,7 @@
       </c>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
@@ -16903,12 +16903,12 @@
       </c>
       <c r="AS71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -17147,7 +17147,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -17167,7 +17167,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -17247,7 +17247,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -17277,7 +17277,7 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
@@ -17287,7 +17287,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD73" t="inlineStr">
@@ -17302,7 +17302,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG73" t="inlineStr">
@@ -17372,7 +17372,7 @@
       </c>
       <c r="AT73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17409,7 +17409,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -17439,7 +17439,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -17499,7 +17499,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
@@ -17514,7 +17514,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC74" t="inlineStr">
@@ -17589,7 +17589,7 @@
       </c>
       <c r="AQ74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR74" t="inlineStr">
@@ -17599,12 +17599,12 @@
       </c>
       <c r="AS74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -18332,12 +18332,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -18367,7 +18367,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
@@ -18442,7 +18442,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
@@ -18492,7 +18492,7 @@
       </c>
       <c r="AL78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM78" t="inlineStr">
@@ -18517,7 +18517,7 @@
       </c>
       <c r="AQ78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR78" t="inlineStr">
@@ -18527,12 +18527,12 @@
       </c>
       <c r="AS78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19699,7 +19699,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -19729,7 +19729,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -19779,7 +19779,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -19819,12 +19819,12 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -19834,7 +19834,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC84" t="inlineStr">
@@ -19909,7 +19909,7 @@
       </c>
       <c r="AQ84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR84" t="inlineStr">
@@ -19919,12 +19919,12 @@
       </c>
       <c r="AS84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -20395,7 +20395,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -20425,7 +20425,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -20465,7 +20465,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -20475,7 +20475,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -20490,12 +20490,12 @@
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -20530,7 +20530,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr">
@@ -20585,12 +20585,12 @@
       </c>
       <c r="AM87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
@@ -20615,12 +20615,12 @@
       </c>
       <c r="AS87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -21625,7 +21625,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -21635,7 +21635,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -21650,7 +21650,7 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
@@ -21680,7 +21680,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -21690,7 +21690,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC92" t="inlineStr">
@@ -21740,12 +21740,12 @@
       </c>
       <c r="AL92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AN92" t="inlineStr">
@@ -21765,7 +21765,7 @@
       </c>
       <c r="AQ92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR92" t="inlineStr">
@@ -21775,12 +21775,12 @@
       </c>
       <c r="AS92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -22019,7 +22019,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -22044,12 +22044,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -22084,12 +22084,12 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -22109,7 +22109,7 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
@@ -22124,7 +22124,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
@@ -22139,12 +22139,12 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -22154,7 +22154,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC94" t="inlineStr">
@@ -22214,7 +22214,7 @@
       </c>
       <c r="AN94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO94" t="inlineStr">
@@ -22229,7 +22229,7 @@
       </c>
       <c r="AQ94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR94" t="inlineStr">
@@ -22244,14 +22244,14 @@
       </c>
       <c r="AT94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -22276,12 +22276,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -22311,17 +22311,17 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -22341,7 +22341,7 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
@@ -22351,7 +22351,7 @@
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -22371,7 +22371,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
@@ -22436,12 +22436,12 @@
       </c>
       <c r="AL95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AN95" t="inlineStr">
@@ -22461,7 +22461,7 @@
       </c>
       <c r="AQ95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR95" t="inlineStr">
@@ -22471,12 +22471,12 @@
       </c>
       <c r="AS95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -22508,12 +22508,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -22548,7 +22548,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -22693,12 +22693,12 @@
       </c>
       <c r="AQ96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS96" t="inlineStr">
@@ -22708,7 +22708,7 @@
       </c>
       <c r="AT96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -23411,7 +23411,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -23431,7 +23431,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -23451,7 +23451,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -23501,7 +23501,7 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
@@ -23541,7 +23541,7 @@
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB100" t="inlineStr">
@@ -23551,7 +23551,7 @@
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD100" t="inlineStr">
@@ -23566,7 +23566,7 @@
       </c>
       <c r="AF100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG100" t="inlineStr">
@@ -23616,7 +23616,7 @@
       </c>
       <c r="AP100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ100" t="inlineStr">
@@ -23636,7 +23636,7 @@
       </c>
       <c r="AT100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
